--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,65 +437,104 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-5.699731724374067</v>
       </c>
+      <c r="B2" t="n">
+        <v>-5.495350641751012</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>-1.258572757410097</v>
       </c>
+      <c r="B3" t="n">
+        <v>-1.216912393892497</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>-0.3509959172515454</v>
       </c>
+      <c r="B4" t="n">
+        <v>-0.2115290944926489</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-1.14484638673034</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.7805461921285272</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1955027203003988</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.08446522446083314</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>0.03235159002432086</v>
       </c>
+      <c r="B7" t="n">
+        <v>0.1485801864359923</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>0.3583846717206049</v>
       </c>
+      <c r="B8" t="n">
+        <v>0.2183710325100078</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>0.2905131883717921</v>
       </c>
+      <c r="B9" t="n">
+        <v>-0.003533286934612361</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>-0.02086425413586665</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.06358709684993932</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>0.05054406153946885</v>
       </c>
+      <c r="B11" t="n">
+        <v>0.01467260931079434</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>0.103913509245779</v>
       </c>
+      <c r="B12" t="n">
+        <v>0.05392020294461882</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0.001915018074071171</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.00372867028424085</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-5.495350641751012</v>
       </c>
+      <c r="C2" t="n">
+        <v>-5.162938253646961</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>-1.216912393892497</v>
       </c>
+      <c r="C3" t="n">
+        <v>-1.230872123270181</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>-0.2115290944926489</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.08073787866549097</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.7805461921285272</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.4375737637739642</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.08446522446083314</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.01336035328125892</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>0.1485801864359923</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.09957005506681453</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>0.2183710325100078</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.1255627463891133</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +528,9 @@
       <c r="B9" t="n">
         <v>-0.003533286934612361</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.03065774420266123</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +539,9 @@
       <c r="B10" t="n">
         <v>0.06358709684993932</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.02915937565228036</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +550,9 @@
       <c r="B11" t="n">
         <v>0.01467260931079434</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.003142978813154578</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +561,9 @@
       <c r="B12" t="n">
         <v>0.05392020294461882</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.0416495879320569</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -535,6 +571,9 @@
       </c>
       <c r="B13" t="n">
         <v>-0.00372867028424085</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.001427841317002163</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -452,7 +452,7 @@
         <v>-5.495350641751012</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.162938253646961</v>
+        <v>-5.143960429218957</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         <v>-1.216912393892497</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.230872123270181</v>
+        <v>-1.225135039214685</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         <v>-0.2115290944926489</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.08073787866549097</v>
+        <v>-0.07030676086051522</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         <v>-0.7805461921285272</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4375737637739642</v>
+        <v>-0.4261225642150345</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         <v>0.08446522446083314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01336035328125892</v>
+        <v>0.01177441783374552</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +507,7 @@
         <v>0.1485801864359923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09957005506681453</v>
+        <v>0.09949832726891362</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,7 @@
         <v>0.2183710325100078</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1255627463891133</v>
+        <v>0.1241200437525787</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +529,7 @@
         <v>-0.003533286934612361</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03065774420266123</v>
+        <v>0.0292001024991827</v>
       </c>
     </row>
     <row r="10">
@@ -540,7 +540,7 @@
         <v>0.06358709684993932</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02915937565228036</v>
+        <v>0.02926903675507106</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +551,7 @@
         <v>0.01467260931079434</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003142978813154578</v>
+        <v>0.002762913964716858</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +562,7 @@
         <v>0.05392020294461882</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0416495879320569</v>
+        <v>0.04060450717413161</v>
       </c>
     </row>
     <row r="13">
@@ -573,7 +573,7 @@
         <v>-0.00372867028424085</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.001427841317002163</v>
+        <v>-0.001865287044813922</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,12 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,7 +458,13 @@
         <v>-5.495350641751012</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.143960429218957</v>
+        <v>-5.162938253646961</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.814467328962087</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4.434346894216289</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +475,13 @@
         <v>-1.216912393892497</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.225135039214685</v>
+        <v>-1.230872123270181</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.212117344132834</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.181443779698794</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +492,13 @@
         <v>-0.2115290944926489</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07030676086051522</v>
+        <v>-0.08073787866549097</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01491559983289693</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.08984950567291528</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +509,13 @@
         <v>-0.7805461921285272</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4261225642150345</v>
+        <v>-0.4375737637739642</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1734273993507124</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03793664658911642</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +526,13 @@
         <v>0.08446522446083314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01177441783374552</v>
+        <v>0.01336035328125892</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.04886876058402497</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.1037897773736463</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +543,13 @@
         <v>0.1485801864359923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09949832726891362</v>
+        <v>0.09957005506681453</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06232481319395875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02488347623765172</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +560,13 @@
         <v>0.2183710325100078</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1241200437525787</v>
+        <v>0.1255627463891133</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03018733153560915</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.0607292752145601</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +577,13 @@
         <v>-0.003533286934612361</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0292001024991827</v>
+        <v>0.03065774420266123</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0255049138530617</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02259250009160615</v>
       </c>
     </row>
     <row r="10">
@@ -540,7 +594,13 @@
         <v>0.06358709684993932</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02926903675507106</v>
+        <v>0.02915937565228036</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.02538142198961245</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01743950579382542</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +611,13 @@
         <v>0.01467260931079434</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002762913964716858</v>
+        <v>0.003142978813154578</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.008526450440452422</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01036837390730543</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +628,13 @@
         <v>0.05392020294461882</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04060450717413161</v>
+        <v>0.0416495879320569</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02740891658032532</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01773775477520047</v>
       </c>
     </row>
     <row r="13">
@@ -573,7 +645,13 @@
         <v>-0.00372867028424085</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.001865287044813922</v>
+        <v>-0.001427841317002163</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.001083974367374332</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002276948278055886</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-4.434346894216289</v>
       </c>
+      <c r="F2" t="n">
+        <v>-4.034868838970188</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>-1.181443779698794</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.136183456249042</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.08984950567291528</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1449502459264066</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>0.03793664658911642</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2018896061144968</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>-0.1037897773736463</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1532922193252149</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>0.02488347623765172</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.009340667023885448</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.0607292752145601</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1443124555178001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +609,9 @@
       <c r="E9" t="n">
         <v>0.02259250009160615</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.01951082389117874</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +629,9 @@
       <c r="E10" t="n">
         <v>0.01743950579382542</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.01241828751796611</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +649,9 @@
       <c r="E11" t="n">
         <v>0.01036837390730543</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.0121887739132693</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +669,9 @@
       <c r="E12" t="n">
         <v>0.01773775477520047</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.009031876348228374</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -652,6 +688,9 @@
       </c>
       <c r="E13" t="n">
         <v>0.002276948278055886</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.003646416595483561</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-4.034868838970188</v>
       </c>
+      <c r="G2" t="n">
+        <v>-3.626717110300389</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>-1.136183456249042</v>
       </c>
+      <c r="G3" t="n">
+        <v>-1.078264697227773</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1449502459264066</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1817798605595868</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>0.2018896061144968</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.3248365281344617</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>-0.1532922193252149</v>
       </c>
+      <c r="G6" t="n">
+        <v>-0.1964527829467523</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.009340667023885448</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.04077050061260248</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.1443124555178001</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.2189231053835222</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>0.01951082389117874</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.01701462199053081</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +659,9 @@
       <c r="F10" t="n">
         <v>0.01241828751796611</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.00845741847911788</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +682,9 @@
       <c r="F11" t="n">
         <v>0.0121887739132693</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.01335319761859544</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -672,6 +705,9 @@
       <c r="F12" t="n">
         <v>0.009031876348228374</v>
       </c>
+      <c r="G12" t="n">
+        <v>0.001837496920872527</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -691,6 +727,9 @@
       </c>
       <c r="F13" t="n">
         <v>0.003646416595483561</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.004690904189773711</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-3.626717110300389</v>
       </c>
+      <c r="H2" t="n">
+        <v>-3.218959039457835</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>-1.078264697227773</v>
       </c>
+      <c r="H3" t="n">
+        <v>-1.010682757832255</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1817798605595868</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.2021301053736409</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>0.3248365281344617</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.4123850037945879</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>-0.1964527829467523</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.2329541482325008</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.04077050061260248</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.06882886952298975</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.2189231053835222</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.2835669097264792</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +663,9 @@
       <c r="G9" t="n">
         <v>0.01701462199053081</v>
       </c>
+      <c r="H9" t="n">
+        <v>0.01475606368087437</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +689,9 @@
       <c r="G10" t="n">
         <v>0.00845741847911788</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.005712341682157214</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +715,9 @@
       <c r="G11" t="n">
         <v>0.01335319761859544</v>
       </c>
+      <c r="H11" t="n">
+        <v>0.01404896506960149</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +741,9 @@
       <c r="G12" t="n">
         <v>0.001837496920872527</v>
       </c>
+      <c r="H12" t="n">
+        <v>-0.004112049415664143</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -730,6 +766,9 @@
       </c>
       <c r="G13" t="n">
         <v>0.004690904189773711</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.005446420436450191</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-3.218959039457835</v>
       </c>
+      <c r="I2" t="n">
+        <v>-2.819336922776783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>-1.010682757832255</v>
       </c>
+      <c r="I3" t="n">
+        <v>-0.9362777949205524</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.2021301053736409</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2078753676601743</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>0.4123850037945879</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.4698615395885134</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>-0.2329541482325008</v>
       </c>
+      <c r="I6" t="n">
+        <v>-0.2626714299430684</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.06882886952298975</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.09325203477070984</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.2835669097264792</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.3377309697024932</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -666,6 +690,9 @@
       <c r="H9" t="n">
         <v>0.01475606368087437</v>
       </c>
+      <c r="I9" t="n">
+        <v>0.01275783619232389</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -692,6 +719,9 @@
       <c r="H10" t="n">
         <v>0.005712341682157214</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.003888785133545459</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -718,6 +748,9 @@
       <c r="H11" t="n">
         <v>0.01404896506960149</v>
       </c>
+      <c r="I11" t="n">
+        <v>0.01430989103075473</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -744,6 +777,9 @@
       <c r="H12" t="n">
         <v>-0.004112049415664143</v>
       </c>
+      <c r="I12" t="n">
+        <v>-0.008894076975785524</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -769,6 +805,9 @@
       </c>
       <c r="H13" t="n">
         <v>0.005446420436450191</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.005931984427283205</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-2.819336922776783</v>
       </c>
+      <c r="J2" t="n">
+        <v>-2.434284954408603</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>-0.9362777949205524</v>
       </c>
+      <c r="J3" t="n">
+        <v>-0.8576568797294196</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2078753676601743</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.200910192235226</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>0.4698615395885134</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.5021851889671216</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>-0.2626714299430684</v>
       </c>
+      <c r="J6" t="n">
+        <v>-0.2856768483665918</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.09325203477070984</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.1138699890795272</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.3377309697024932</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.3813348561588801</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -693,6 +717,9 @@
       <c r="I9" t="n">
         <v>0.01275783619232389</v>
       </c>
+      <c r="J9" t="n">
+        <v>0.01099208633564691</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -722,6 +749,9 @@
       <c r="I10" t="n">
         <v>0.003888785133545459</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.002812494613474942</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -751,6 +781,9 @@
       <c r="I11" t="n">
         <v>0.01430989103075473</v>
       </c>
+      <c r="J11" t="n">
+        <v>0.01420936578329162</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -780,6 +813,9 @@
       <c r="I12" t="n">
         <v>-0.008894076975785524</v>
       </c>
+      <c r="J12" t="n">
+        <v>-0.01262689022859163</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -808,6 +844,9 @@
       </c>
       <c r="I13" t="n">
         <v>0.005931984427283205</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.006187022760765711</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-2.434284954408603</v>
       </c>
+      <c r="K2" t="n">
+        <v>-2.068975534198406</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>-0.8576568797294196</v>
       </c>
+      <c r="K3" t="n">
+        <v>-0.7771344226487412</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.200910192235226</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.183110384625032</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>0.5021851889671216</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.5138671576547047</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>-0.2856768483665918</v>
       </c>
+      <c r="K6" t="n">
+        <v>-0.3022069224144349</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.1138699890795272</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.1306314089460681</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.3813348561588801</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.4146387375254262</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -720,6 +744,9 @@
       <c r="J9" t="n">
         <v>0.01099208633564691</v>
       </c>
+      <c r="K9" t="n">
+        <v>0.009443338285994494</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -752,6 +779,9 @@
       <c r="J10" t="n">
         <v>0.002812494613474942</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.002313809473166984</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -784,6 +814,9 @@
       <c r="J11" t="n">
         <v>0.01420936578329162</v>
       </c>
+      <c r="K11" t="n">
+        <v>0.01381051177974041</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -816,6 +849,9 @@
       <c r="J12" t="n">
         <v>-0.01262689022859163</v>
       </c>
+      <c r="K12" t="n">
+        <v>-0.01542182351927147</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -847,6 +883,9 @@
       </c>
       <c r="J13" t="n">
         <v>0.006187022760765711</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.006246776911890241</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-2.068975534198406</v>
       </c>
+      <c r="L2" t="n">
+        <v>-1.72738517962832</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>-0.7771344226487412</v>
       </c>
+      <c r="L3" t="n">
+        <v>-0.6967149970843119</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.183110384625032</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.1562952233239794</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>0.5138671576547047</v>
       </c>
+      <c r="L5" t="n">
+        <v>0.5089939103012796</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>-0.3022069224144349</v>
       </c>
+      <c r="L6" t="n">
+        <v>-0.3126377790120897</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.1306314089460681</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.1435872622920294</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.4146387375254262</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.4381631164870195</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -747,6 +771,9 @@
       <c r="K9" t="n">
         <v>0.009443338285994494</v>
       </c>
+      <c r="L9" t="n">
+        <v>0.008093668888937436</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -782,6 +809,9 @@
       <c r="K10" t="n">
         <v>0.002313809473166984</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.002250896860480827</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -817,6 +847,9 @@
       <c r="K11" t="n">
         <v>0.01381051177974041</v>
       </c>
+      <c r="L11" t="n">
+        <v>0.01317345839470828</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -852,6 +885,9 @@
       <c r="K12" t="n">
         <v>-0.01542182351927147</v>
       </c>
+      <c r="L12" t="n">
+        <v>-0.01739133965261911</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -886,6 +922,9 @@
       </c>
       <c r="K13" t="n">
         <v>0.006246776911890241</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.006145316467450873</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-1.72738517962832</v>
       </c>
+      <c r="M2" t="n">
+        <v>-1.412385550890536</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>-0.6967149970843119</v>
       </c>
+      <c r="M3" t="n">
+        <v>-0.6180868043574751</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.1562952233239794</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.1221941167058796</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>0.5089939103012796</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.4912222773001771</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>-0.3126377790120897</v>
       </c>
+      <c r="M6" t="n">
+        <v>-0.3174567085541937</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.1435872622920294</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.1528832274794876</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.4381631164870195</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.4526171650778404</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,6 +798,9 @@
       <c r="L9" t="n">
         <v>0.008093668888937436</v>
       </c>
+      <c r="M9" t="n">
+        <v>0.006926165729207005</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -812,6 +839,9 @@
       <c r="L10" t="n">
         <v>0.002250896860480827</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.002503068335793148</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -850,6 +880,9 @@
       <c r="L11" t="n">
         <v>0.01317345839470828</v>
       </c>
+      <c r="M11" t="n">
+        <v>0.01235273777099175</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -888,6 +921,9 @@
       <c r="L12" t="n">
         <v>-0.01739133965261911</v>
       </c>
+      <c r="M12" t="n">
+        <v>-0.01864465532461667</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -925,6 +961,9 @@
       </c>
       <c r="L13" t="n">
         <v>0.006145316467450873</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.005914085402748282</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-1.412385550890536</v>
       </c>
+      <c r="N2" t="n">
+        <v>-1.125850542913201</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>-0.6180868043574751</v>
       </c>
+      <c r="N3" t="n">
+        <v>-0.542627969950028</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.1221941167058796</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.08241930544840452</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>0.4912222773001771</v>
       </c>
+      <c r="N5" t="n">
+        <v>0.463780952583392</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>-0.3174567085541937</v>
       </c>
+      <c r="N6" t="n">
+        <v>-0.3172334496949577</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.1528832274794876</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.1587463843116927</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.4526171650778404</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.4588379822222636</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -801,6 +825,9 @@
       <c r="M9" t="n">
         <v>0.006926165729207005</v>
       </c>
+      <c r="N9" t="n">
+        <v>0.005924348002722607</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +869,9 @@
       <c r="M10" t="n">
         <v>0.002503068335793148</v>
       </c>
+      <c r="N10" t="n">
+        <v>0.002970061269621</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -883,6 +913,9 @@
       <c r="M11" t="n">
         <v>0.01235273777099175</v>
       </c>
+      <c r="N11" t="n">
+        <v>0.01139733965392904</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -924,6 +957,9 @@
       <c r="M12" t="n">
         <v>-0.01864465532461667</v>
       </c>
+      <c r="N12" t="n">
+        <v>-0.01928635618893561</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -964,6 +1000,9 @@
       </c>
       <c r="M13" t="n">
         <v>0.005914085402748282</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.005581765007529898</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-1.125850542913201</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.868773331815523</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.6413875193420462</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>-0.542627969950028</v>
       </c>
+      <c r="O3" t="n">
+        <v>-0.4714219364225961</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.4052797520108004</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.08241930544840452</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.03844560962470986</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.008402650748879321</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>0.463780952583392</v>
       </c>
+      <c r="O5" t="n">
+        <v>0.429479825211166</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.390726352879284</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>-0.3172334496949577</v>
       </c>
+      <c r="O6" t="n">
+        <v>-0.3125915767930236</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.3041813948739353</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.1587463843116927</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.1614690575234892</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1613905153886959</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.4588379822222636</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.4577403821099732</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.4502764201483659</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +876,12 @@
       <c r="N9" t="n">
         <v>0.005924348002722607</v>
       </c>
+      <c r="O9" t="n">
+        <v>0.005072445241089941</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.004355462897618633</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -872,6 +926,12 @@
       <c r="N10" t="n">
         <v>0.002970061269621</v>
       </c>
+      <c r="O10" t="n">
+        <v>0.003569810520481088</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.004236458866885789</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -916,6 +976,12 @@
       <c r="N11" t="n">
         <v>0.01139733965392904</v>
       </c>
+      <c r="O11" t="n">
+        <v>0.01035051486891284</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.009249860421837208</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -960,6 +1026,12 @@
       <c r="N12" t="n">
         <v>-0.01928635618893561</v>
       </c>
+      <c r="O12" t="n">
+        <v>-0.01941490639839046</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01912168124808197</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1003,6 +1075,12 @@
       </c>
       <c r="N13" t="n">
         <v>0.005581765007529898</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.005174084191942426</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.004713785164572149</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.6413875193420462</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.4432875806914642</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>-0.4052797520108004</v>
       </c>
+      <c r="Q3" t="n">
+        <v>-0.3447668972081971</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>-0.008402650748879321</v>
       </c>
+      <c r="Q4" t="n">
+        <v>-0.0569580329922234</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>0.390726352879284</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0.3495480367476542</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>-0.3041813948739353</v>
       </c>
+      <c r="Q6" t="n">
+        <v>-0.2926556075729493</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.1613905153886959</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.1588783135533249</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.4502764201483659</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.4374033387740311</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,6 +906,9 @@
       <c r="P9" t="n">
         <v>0.004355462897618633</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0.003759251215083918</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -932,6 +959,9 @@
       <c r="P10" t="n">
         <v>0.004236458866885789</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0.004918344241754104</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -982,6 +1012,9 @@
       <c r="P11" t="n">
         <v>0.009249860421837208</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0.008127510460747835</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1032,6 +1065,9 @@
       <c r="P12" t="n">
         <v>-0.01912168124808197</v>
       </c>
+      <c r="Q12" t="n">
+        <v>-0.01849032290018745</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1081,6 +1117,9 @@
       </c>
       <c r="P13" t="n">
         <v>0.004713785164572149</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.004220659958507684</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.4432875806914642</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2735448223740054</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>-0.3447668972081971</v>
       </c>
+      <c r="R3" t="n">
+        <v>-0.2902325794741342</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>-0.0569580329922234</v>
       </c>
+      <c r="R4" t="n">
+        <v>-0.1062105346633755</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>0.3495480367476542</v>
       </c>
+      <c r="R5" t="n">
+        <v>0.3076196744157809</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>-0.2926556075729493</v>
       </c>
+      <c r="R6" t="n">
+        <v>-0.2786487522348943</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.1588783135533249</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.1543108530845383</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.4374033387740311</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.420058530786017</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -909,6 +933,9 @@
       <c r="Q9" t="n">
         <v>0.003759251215083918</v>
       </c>
+      <c r="R9" t="n">
+        <v>0.003270537279239134</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -962,6 +989,9 @@
       <c r="Q10" t="n">
         <v>0.004918344241754104</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.005576092598143925</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1015,6 +1045,9 @@
       <c r="Q11" t="n">
         <v>0.008127510460747835</v>
       </c>
+      <c r="R11" t="n">
+        <v>0.007010423796968926</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1068,6 +1101,9 @@
       <c r="Q12" t="n">
         <v>-0.01849032290018745</v>
       </c>
+      <c r="R12" t="n">
+        <v>-0.01759639326189918</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1120,6 +1156,9 @@
       </c>
       <c r="Q13" t="n">
         <v>0.004220659958507684</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.003711651490697963</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2735448223740054</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.1308160477376715</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>-0.2902325794741342</v>
       </c>
+      <c r="S3" t="n">
+        <v>-0.2418397644611318</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>-0.1062105346633755</v>
       </c>
+      <c r="S4" t="n">
+        <v>-0.1553034382972551</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>0.3076196744157809</v>
       </c>
+      <c r="S5" t="n">
+        <v>0.2662939528990383</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>-0.2786487522348943</v>
       </c>
+      <c r="S6" t="n">
+        <v>-0.2627609430981667</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.1543108530845383</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.1480623519010859</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.420058530786017</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.3991402435462957</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -936,6 +960,9 @@
       <c r="R9" t="n">
         <v>0.003270537279239134</v>
       </c>
+      <c r="S9" t="n">
+        <v>0.002876938022277745</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -992,6 +1019,9 @@
       <c r="R10" t="n">
         <v>0.005576092598143925</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.00618083343673553</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1048,6 +1078,9 @@
       <c r="R11" t="n">
         <v>0.007010423796968926</v>
       </c>
+      <c r="S11" t="n">
+        <v>0.005920733773278936</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1104,6 +1137,9 @@
       <c r="R12" t="n">
         <v>-0.01759639326189918</v>
       </c>
+      <c r="S12" t="n">
+        <v>-0.01650726591056399</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1159,6 +1195,9 @@
       </c>
       <c r="R13" t="n">
         <v>0.003711651490697963</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.003201001191461122</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.1308160477376715</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.01344301963007851</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>-0.2418397644611318</v>
       </c>
+      <c r="T3" t="n">
+        <v>-0.1995946125428495</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>-0.1553034382972551</v>
       </c>
+      <c r="T4" t="n">
+        <v>-0.2035255796593893</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>0.2662939528990383</v>
       </c>
+      <c r="T5" t="n">
+        <v>0.2266339646718553</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>-0.2627609430981667</v>
       </c>
+      <c r="T6" t="n">
+        <v>-0.2455460109780892</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.1480623519010859</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.1404908984955091</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.3991402435462957</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.3754929850672323</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -963,6 +987,9 @@
       <c r="S9" t="n">
         <v>0.002876938022277745</v>
       </c>
+      <c r="T9" t="n">
+        <v>0.002566958292248685</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1022,6 +1049,9 @@
       <c r="S10" t="n">
         <v>0.00618083343673553</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.006712558965111234</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1081,6 +1111,9 @@
       <c r="S11" t="n">
         <v>0.005920733773278936</v>
       </c>
+      <c r="T11" t="n">
+        <v>0.004876139651858532</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1140,6 +1173,9 @@
       <c r="S12" t="n">
         <v>-0.01650726591056399</v>
       </c>
+      <c r="T12" t="n">
+        <v>-0.01528221293534516</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1198,6 +1234,9 @@
       </c>
       <c r="S13" t="n">
         <v>0.003201001191461122</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.002700430716380512</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.01344301963007851</v>
       </c>
+      <c r="U2" t="n">
+        <v>0.08045842056285143</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>-0.1995946125428495</v>
       </c>
+      <c r="U3" t="n">
+        <v>-0.1633743741006542</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>-0.2035255796593893</v>
       </c>
+      <c r="U4" t="n">
+        <v>-0.2503011114856523</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>0.2266339646718553</v>
       </c>
+      <c r="U5" t="n">
+        <v>0.1894463684576889</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>-0.2455460109780892</v>
       </c>
+      <c r="U6" t="n">
+        <v>-0.2275037551535531</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.1404908984955091</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.1319297619080158</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.3754929850672323</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.3498968403380415</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -990,6 +1014,9 @@
       <c r="T9" t="n">
         <v>0.002566958292248685</v>
       </c>
+      <c r="U9" t="n">
+        <v>0.00232997907322764</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1052,6 +1079,9 @@
       <c r="T10" t="n">
         <v>0.006712558965111234</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.007158633491274036</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1114,6 +1144,9 @@
       <c r="T11" t="n">
         <v>0.004876139651858532</v>
       </c>
+      <c r="U11" t="n">
+        <v>0.003890321961704888</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1176,6 +1209,9 @@
       <c r="T12" t="n">
         <v>-0.01528221293534516</v>
       </c>
+      <c r="U12" t="n">
+        <v>-0.01397264661870752</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1237,6 +1273,9 @@
       </c>
       <c r="T13" t="n">
         <v>0.002700430716380512</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.002219346550291816</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>0.08045842056285143</v>
       </c>
+      <c r="V2" t="n">
+        <v>0.1529200843667519</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>-0.1633743741006542</v>
       </c>
+      <c r="V3" t="n">
+        <v>-0.1329531333191674</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>-0.2503011114856523</v>
       </c>
+      <c r="V4" t="n">
+        <v>-0.2951776968320684</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>0.1894463684576889</v>
       </c>
+      <c r="V5" t="n">
+        <v>0.1553141223448105</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>-0.2275037551535531</v>
       </c>
+      <c r="V6" t="n">
+        <v>-0.2090757731169714</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.1319297619080158</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.1226817504043933</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.3498968403380415</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.3230601068514845</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1041,9 @@
       <c r="U9" t="n">
         <v>0.00232997907322764</v>
       </c>
+      <c r="V9" t="n">
+        <v>0.002156238834206017</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1082,6 +1109,9 @@
       <c r="U10" t="n">
         <v>0.007158633491274036</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.007512454113483167</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1147,6 +1177,9 @@
       <c r="U11" t="n">
         <v>0.003890321961704888</v>
       </c>
+      <c r="V11" t="n">
+        <v>0.002973368174308742</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1212,6 +1245,9 @@
       <c r="U12" t="n">
         <v>-0.01397264661870752</v>
       </c>
+      <c r="V12" t="n">
+        <v>-0.01262248136242146</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1276,6 +1312,9 @@
       </c>
       <c r="U13" t="n">
         <v>0.002219346550291816</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.001765058210372312</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>0.1529200843667519</v>
       </c>
+      <c r="W2" t="n">
+        <v>0.2060540261234327</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>-0.1329531333191674</v>
       </c>
+      <c r="W3" t="n">
+        <v>-0.1080250611614417</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>-0.2951776968320684</v>
       </c>
+      <c r="W4" t="n">
+        <v>-0.3378138982824022</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>0.1553141223448105</v>
       </c>
+      <c r="W5" t="n">
+        <v>0.12462795091681</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>-0.2090757731169714</v>
       </c>
+      <c r="W6" t="n">
+        <v>-0.1906442086710206</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.1226817504043933</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.1130161748294767</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.3230601068514845</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.2956147922542223</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,6 +1068,9 @@
       <c r="V9" t="n">
         <v>0.002156238834206017</v>
       </c>
+      <c r="W9" t="n">
+        <v>0.00203680990604104</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1112,6 +1139,9 @@
       <c r="V10" t="n">
         <v>0.007512454113483167</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.007772259642501623</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1180,6 +1210,9 @@
       <c r="V11" t="n">
         <v>0.002973368174308742</v>
       </c>
+      <c r="W11" t="n">
+        <v>0.002132197722044904</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1248,6 +1281,9 @@
       <c r="V12" t="n">
         <v>-0.01262248136242146</v>
       </c>
+      <c r="W12" t="n">
+        <v>-0.01126858563156141</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1315,6 +1351,9 @@
       </c>
       <c r="V13" t="n">
         <v>0.001765058210372312</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.001343002285820627</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>0.2060540261234327</v>
       </c>
+      <c r="X2" t="n">
+        <v>0.2419956261164519</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>-0.1080250611614417</v>
       </c>
+      <c r="X3" t="n">
+        <v>-0.08822504218451946</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>-0.3378138982824022</v>
       </c>
+      <c r="X4" t="n">
+        <v>-0.3779663587877563</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>0.12462795091681</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.09761593954245612</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>-0.1906442086710206</v>
       </c>
+      <c r="X6" t="n">
+        <v>-0.1725327375960898</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.1130161748294767</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.1031678696417403</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.2956147922542223</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.2681145907509768</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1071,6 +1095,9 @@
       <c r="W9" t="n">
         <v>0.00203680990604104</v>
       </c>
+      <c r="X9" t="n">
+        <v>0.001963570943719148</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1142,6 +1169,9 @@
       <c r="W10" t="n">
         <v>0.007772259642501623</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.007940082305833178</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1213,6 +1243,9 @@
       <c r="W11" t="n">
         <v>0.002132197722044904</v>
       </c>
+      <c r="X11" t="n">
+        <v>0.001370977515028522</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1284,6 +1317,9 @@
       <c r="W12" t="n">
         <v>-0.01126858563156141</v>
       </c>
+      <c r="X12" t="n">
+        <v>-0.0099412976238524</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1354,6 +1390,9 @@
       </c>
       <c r="W13" t="n">
         <v>0.001343002285820627</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.0009569659629290181</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>0.2419956261164519</v>
       </c>
+      <c r="Y2" t="n">
+        <v>0.2628565394101878</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>-0.08822504218451946</v>
       </c>
+      <c r="Y3" t="n">
+        <v>-0.07314668375038469</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>-0.3779663587877563</v>
       </c>
+      <c r="Y4" t="n">
+        <v>-0.4154772139798445</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>0.09761593954245612</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0.07437085770792533</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>-0.1725327375960898</v>
       </c>
+      <c r="Y6" t="n">
+        <v>-0.1550091615469493</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.1031678696417403</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.09333772308936934</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.2681145907509768</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.2410349870063856</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1098,6 +1122,9 @@
       <c r="X9" t="n">
         <v>0.001963570943719148</v>
       </c>
+      <c r="Y9" t="n">
+        <v>0.001929176062356425</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1172,6 +1199,9 @@
       <c r="X10" t="n">
         <v>0.007940082305833178</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.008020835187317573</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1246,6 +1276,9 @@
       <c r="X11" t="n">
         <v>0.001370977515028522</v>
       </c>
+      <c r="Y11" t="n">
+        <v>0.0006915208730379883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1320,6 +1353,9 @@
       <c r="X12" t="n">
         <v>-0.0099412976238524</v>
       </c>
+      <c r="Y12" t="n">
+        <v>-0.008664981912535615</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1393,6 +1429,9 @@
       </c>
       <c r="X13" t="n">
         <v>0.0009569659629290181</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0006093049509896501</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>0.2628565394101878</v>
       </c>
+      <c r="Z2" t="n">
+        <v>0.2706867141419346</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>-0.07314668375038469</v>
       </c>
+      <c r="Z3" t="n">
+        <v>-0.06235781083500835</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>-0.4154772139798445</v>
       </c>
+      <c r="Z4" t="n">
+        <v>-0.450262043159097</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>0.07437085770792533</v>
       </c>
+      <c r="Z5" t="n">
+        <v>0.05487498860768644</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>-0.1550091615469493</v>
       </c>
+      <c r="Z6" t="n">
+        <v>-0.1382890735673875</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.09333772308936934</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.0836942302366977</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.2410349870063856</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.2147751471560821</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1125,6 +1149,9 @@
       <c r="Y9" t="n">
         <v>0.001929176062356425</v>
       </c>
+      <c r="Z9" t="n">
+        <v>0.001927021017671526</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1202,6 +1229,9 @@
       <c r="Y10" t="n">
         <v>0.008020835187317573</v>
       </c>
+      <c r="Z10" t="n">
+        <v>0.008021527227548186</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1279,6 +1309,9 @@
       <c r="Y11" t="n">
         <v>0.0006915208730379883</v>
       </c>
+      <c r="Z11" t="n">
+        <v>9.36643397019711e-05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1356,6 +1389,9 @@
       <c r="Y12" t="n">
         <v>-0.008664981912535615</v>
       </c>
+      <c r="Z12" t="n">
+        <v>-0.007458607605557967</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1432,6 +1468,9 @@
       </c>
       <c r="Y13" t="n">
         <v>0.0006093049509896501</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.0003011518679302376</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>0.2706867141419346</v>
       </c>
+      <c r="AA2" t="n">
+        <v>0.2674445897771608</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>-0.06235781083500835</v>
       </c>
+      <c r="AA3" t="n">
+        <v>-0.05541360668180297</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>-0.450262043159097</v>
       </c>
+      <c r="AA4" t="n">
+        <v>-0.4822985595131333</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>0.05487498860768644</v>
       </c>
+      <c r="AA5" t="n">
+        <v>0.039022380764937</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>-0.1382890735673875</v>
       </c>
+      <c r="AA6" t="n">
+        <v>-0.1225401667684226</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.0836942302366977</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.07437567535711051</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.2147751471560821</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.1896612621840496</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,6 +1176,9 @@
       <c r="Z9" t="n">
         <v>0.001927021017671526</v>
       </c>
+      <c r="AA9" t="n">
+        <v>0.001951206753703945</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,6 +1259,9 @@
       <c r="Z10" t="n">
         <v>0.008021527227548186</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.007950596757992744</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1312,6 +1342,9 @@
       <c r="Z11" t="n">
         <v>9.36643397019711e-05</v>
       </c>
+      <c r="AA11" t="n">
+        <v>-0.000424381743124855</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1392,6 +1425,9 @@
       <c r="Z12" t="n">
         <v>-0.007458607605557967</v>
       </c>
+      <c r="AA12" t="n">
+        <v>-0.006336331671473274</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1471,6 +1507,9 @@
       </c>
       <c r="Z13" t="n">
         <v>0.0003011518679302376</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3.261216582963779e-05</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>0.2674445897771608</v>
       </c>
+      <c r="AB2" t="n">
+        <v>0.254974550997682</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>-0.05541360668180297</v>
       </c>
+      <c r="AB3" t="n">
+        <v>-0.0518675895906776</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>-0.4822985595131333</v>
       </c>
+      <c r="AB4" t="n">
+        <v>-0.5116161583295098</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>0.039022380764937</v>
       </c>
+      <c r="AB5" t="n">
+        <v>0.02663854079143776</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>-0.1225401667684226</v>
       </c>
+      <c r="AB6" t="n">
+        <v>-0.1078868631482651</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.07437567535711051</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.06549264903910666</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.1896612621840496</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1659510191088779</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1203,9 @@
       <c r="AA9" t="n">
         <v>0.001951206753703945</v>
       </c>
+      <c r="AB9" t="n">
+        <v>0.001996500682154083</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1262,6 +1289,9 @@
       <c r="AA10" t="n">
         <v>0.007950596757992744</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0.007817353910177946</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1345,6 +1375,9 @@
       <c r="AA11" t="n">
         <v>-0.000424381743124855</v>
       </c>
+      <c r="AB11" t="n">
+        <v>-0.0008657117281705811</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1428,6 +1461,9 @@
       <c r="AA12" t="n">
         <v>-0.006336331671473274</v>
       </c>
+      <c r="AB12" t="n">
+        <v>-0.005308074017017843</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1510,6 +1546,9 @@
       </c>
       <c r="AA13" t="n">
         <v>3.261216582963779e-05</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.0001970544254907658</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>0.254974550997682</v>
       </c>
+      <c r="AC2" t="n">
+        <v>0.2349907210825027</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>-0.0518675895906776</v>
       </c>
+      <c r="AC3" t="n">
+        <v>-0.05128062789778967</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>-0.5116161583295098</v>
       </c>
+      <c r="AC4" t="n">
+        <v>-0.5382863818166723</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>0.02663854079143776</v>
       </c>
+      <c r="AC5" t="n">
+        <v>0.0174976589207406</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>-0.1078868631482651</v>
       </c>
+      <c r="AC6" t="n">
+        <v>-0.09441503159366302</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.06549264903910666</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.0571306949508592</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1659510191088779</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.1438388942258328</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1206,6 +1230,9 @@
       <c r="AB9" t="n">
         <v>0.001996500682154083</v>
       </c>
+      <c r="AC9" t="n">
+        <v>0.002058296130634709</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1292,6 +1319,9 @@
       <c r="AB10" t="n">
         <v>0.007817353910177946</v>
       </c>
+      <c r="AC10" t="n">
+        <v>0.007631521830908589</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1378,6 +1408,9 @@
       <c r="AB11" t="n">
         <v>-0.0008657117281705811</v>
       </c>
+      <c r="AC11" t="n">
+        <v>-0.001234433879067002</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1464,6 +1497,9 @@
       <c r="AB12" t="n">
         <v>-0.005308074017017843</v>
       </c>
+      <c r="AC12" t="n">
+        <v>-0.004380073640895051</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1549,6 +1585,9 @@
       </c>
       <c r="AB13" t="n">
         <v>-0.0001970544254907658</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.0003892681861362456</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>0.2349907210825027</v>
       </c>
+      <c r="AD2" t="n">
+        <v>0.2090662167634999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>-0.05128062789778967</v>
       </c>
+      <c r="AD3" t="n">
+        <v>-0.05322819532427445</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>-0.5382863818166723</v>
       </c>
+      <c r="AD4" t="n">
+        <v>-0.5624143166239383</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>0.0174976589207406</v>
       </c>
+      <c r="AD5" t="n">
+        <v>0.01133750627324634</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>-0.09441503159366302</v>
       </c>
+      <c r="AD6" t="n">
+        <v>-0.08217663819370216</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.0571306949508592</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.049352954090712</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.1438388942258328</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.1234619901416479</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1233,6 +1257,9 @@
       <c r="AC9" t="n">
         <v>0.002058296130634709</v>
       </c>
+      <c r="AD9" t="n">
+        <v>0.002132570463308468</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1322,6 +1349,9 @@
       <c r="AC10" t="n">
         <v>0.007631521830908589</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0.007402866459706343</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1411,6 +1441,9 @@
       <c r="AC11" t="n">
         <v>-0.001234433879067002</v>
       </c>
+      <c r="AD11" t="n">
+        <v>-0.00153541093798653</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1500,6 +1533,9 @@
       <c r="AC12" t="n">
         <v>-0.004380073640895051</v>
       </c>
+      <c r="AD12" t="n">
+        <v>-0.003555417695896007</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1588,6 +1624,9 @@
       </c>
       <c r="AC13" t="n">
         <v>-0.0003892681861362456</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.0005459800276101281</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>0.2090662167634999</v>
       </c>
+      <c r="AE2" t="n">
+        <v>0.1786270439112103</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>-0.05322819532427445</v>
       </c>
+      <c r="AE3" t="n">
+        <v>-0.05730606209263493</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>-0.5624143166239383</v>
       </c>
+      <c r="AE4" t="n">
+        <v>-0.5841309112445862</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>0.01133750627324634</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.007872170660613291</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>-0.08217663819370216</v>
       </c>
+      <c r="AE6" t="n">
+        <v>-0.07119422771669573</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.049352954090712</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.04220272858794164</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.1234619901416479</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.104906172345712</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1260,6 +1284,9 @@
       <c r="AD9" t="n">
         <v>0.002132570463308468</v>
       </c>
+      <c r="AE9" t="n">
+        <v>0.002215842416965764</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1352,6 +1379,9 @@
       <c r="AD10" t="n">
         <v>0.007402866459706343</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.007140904689658981</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1444,6 +1474,9 @@
       <c r="AD11" t="n">
         <v>-0.00153541093798653</v>
       </c>
+      <c r="AE11" t="n">
+        <v>-0.001774031803872694</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1536,6 +1569,9 @@
       <c r="AD12" t="n">
         <v>-0.003555417695896007</v>
       </c>
+      <c r="AE12" t="n">
+        <v>-0.002834537530712276</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1627,6 +1663,9 @@
       </c>
       <c r="AD13" t="n">
         <v>-0.0005459800276101281</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.0006695385258690036</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>0.1786270439112103</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.1449498816882574</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>-0.05730606209263493</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-0.06313460671156658</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>-0.5841309112445862</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-0.6035861816352566</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>0.007872170660613291</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.006802811288966537</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>-0.07119422771669573</v>
       </c>
+      <c r="AF6" t="n">
+        <v>-0.06146517452362631</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.04220272858794164</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.03570592417758713</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.104906172345712</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.08821229859225045</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1287,6 +1311,9 @@
       <c r="AE9" t="n">
         <v>0.002215842416965764</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.002305129202080431</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1382,6 +1409,9 @@
       <c r="AE10" t="n">
         <v>0.007140904689658981</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.006854681022962523</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1477,6 +1507,9 @@
       <c r="AE11" t="n">
         <v>-0.001774031803872694</v>
       </c>
+      <c r="AF11" t="n">
+        <v>-0.001956013380937871</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1572,6 +1605,9 @@
       <c r="AE12" t="n">
         <v>-0.002834537530712276</v>
       </c>
+      <c r="AF12" t="n">
+        <v>-0.002215667728334236</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1666,6 +1702,9 @@
       </c>
       <c r="AE13" t="n">
         <v>-0.0006695385258690036</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.0007625730332915924</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>0.1449498816882574</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.1091630757753014</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>-0.06313460671156658</v>
       </c>
+      <c r="AG3" t="n">
+        <v>-0.07036192112129715</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>-0.6035861816352566</v>
       </c>
+      <c r="AG4" t="n">
+        <v>-0.6209432616680556</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>0.006802811288966537</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.007826616296390032</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>-0.06146517452362631</v>
       </c>
+      <c r="AG6" t="n">
+        <v>-0.05296566752346981</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.03570592417758713</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.02987335350495324</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.08821229859225045</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.07338237251884221</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1314,6 +1338,9 @@
       <c r="AF9" t="n">
         <v>0.002305129202080431</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.002397903894033156</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1412,6 +1439,9 @@
       <c r="AF10" t="n">
         <v>0.006854681022962523</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.00655260331521606</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1510,6 +1540,9 @@
       <c r="AF11" t="n">
         <v>-0.001956013380937871</v>
       </c>
+      <c r="AG11" t="n">
+        <v>-0.002087231124631325</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1608,6 +1641,9 @@
       <c r="AF12" t="n">
         <v>-0.002215667728334236</v>
       </c>
+      <c r="AG12" t="n">
+        <v>-0.001695265800292385</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1705,6 +1741,9 @@
       </c>
       <c r="AF13" t="n">
         <v>-0.0007625730332915924</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.0008278922295262719</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>0.1091630757753014</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.07225023451693621</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>-0.07036192112129715</v>
       </c>
+      <c r="AH3" t="n">
+        <v>-0.07866586915430282</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>-0.6209432616680556</v>
       </c>
+      <c r="AH4" t="n">
+        <v>-0.6363732481938387</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>0.007826616296390032</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.01064414404592985</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>-0.05296566752346981</v>
       </c>
+      <c r="AH6" t="n">
+        <v>-0.04565441042816708</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.02987335350495324</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.02470289506598776</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.07338237251884221</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.0603854893561197</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1341,6 +1365,9 @@
       <c r="AG9" t="n">
         <v>0.002397903894033156</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.002492053591493383</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1442,6 +1469,9 @@
       <c r="AG10" t="n">
         <v>0.00655260331521606</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.006242328833704992</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1543,6 +1573,9 @@
       <c r="AG11" t="n">
         <v>-0.002087231124631325</v>
       </c>
+      <c r="AH11" t="n">
+        <v>-0.002173576435292751</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1644,6 +1677,9 @@
       <c r="AG12" t="n">
         <v>-0.001695265800292385</v>
       </c>
+      <c r="AH12" t="n">
+        <v>-0.00126839154175614</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1744,6 +1780,9 @@
       </c>
       <c r="AG13" t="n">
         <v>-0.0008278922295262719</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.0008683972533784916</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>0.07225023451693621</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.03505589242558753</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>-0.07866586915430282</v>
       </c>
+      <c r="AI3" t="n">
+        <v>-0.08775524563567912</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>-0.6363732481938387</v>
       </c>
+      <c r="AI4" t="n">
+        <v>-0.6500507868826724</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>0.01064414404592985</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.01496522200370227</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>-0.04565441042816708</v>
       </c>
+      <c r="AI6" t="n">
+        <v>-0.03947602861075136</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.02470289506598776</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.02018150827404279</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.0603854893561197</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.04916347467834514</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1368,6 +1392,9 @@
       <c r="AH9" t="n">
         <v>0.002492053591493383</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.002585838755434489</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1472,6 +1499,9 @@
       <c r="AH10" t="n">
         <v>0.006242328833704992</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.005930692585707602</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1576,6 +1606,9 @@
       <c r="AH11" t="n">
         <v>-0.002173576435292751</v>
       </c>
+      <c r="AI11" t="n">
+        <v>-0.0022208388094343</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1680,6 +1713,9 @@
       <c r="AH12" t="n">
         <v>-0.00126839154175614</v>
       </c>
+      <c r="AI12" t="n">
+        <v>-0.0009290461217886308</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1783,6 +1819,9 @@
       </c>
       <c r="AH13" t="n">
         <v>-0.0008683972533784916</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.0008870084149848326</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>0.03505589242558753</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.001707228348468631</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>-0.08775524563567912</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>-0.09737017122553526</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>-0.6500507868826724</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>-0.6621503434667259</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>0.01496522200370227</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.02051356763376578</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>-0.03947602861075136</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>-0.03436417978402478</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.02018150827404279</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.01628710668666489</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.04916347467834514</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.03963614599189731</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AI9" t="n">
         <v>0.002585838755434489</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.002677854071571196</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1502,6 +1529,9 @@
       <c r="AI10" t="n">
         <v>0.005930692585707602</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.005623670656241153</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1609,6 +1639,9 @@
       <c r="AI11" t="n">
         <v>-0.0022208388094343</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>-0.002234610532217481</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1716,6 +1749,9 @@
       <c r="AI12" t="n">
         <v>-0.0009290461217886308</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>-0.0006704718054084364</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1822,6 +1858,9 @@
       </c>
       <c r="AI13" t="n">
         <v>-0.0008870084149848326</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.000886604404988485</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.001707228348468631</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.03744976712879597</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>-0.09737017122553526</v>
       </c>
+      <c r="AK3" t="n">
+        <v>-0.1072818464050471</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>-0.6621503434667259</v>
       </c>
+      <c r="AK4" t="n">
+        <v>-0.6728431047729226</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>0.02051356763376578</v>
       </c>
+      <c r="AK5" t="n">
+        <v>0.02703028522208619</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>-0.03436417978402478</v>
       </c>
+      <c r="AK6" t="n">
+        <v>-0.0302443693142004</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.01628710668666489</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.01299029093605481</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.03963614599189731</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.03170615122758498</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1422,6 +1446,9 @@
       <c r="AJ9" t="n">
         <v>0.002677854071571196</v>
       </c>
+      <c r="AK9" t="n">
+        <v>0.002766991107823289</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1532,6 +1559,9 @@
       <c r="AJ10" t="n">
         <v>0.005623670656241153</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.005326372089901938</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1642,6 +1672,9 @@
       <c r="AJ11" t="n">
         <v>-0.002234610532217481</v>
       </c>
+      <c r="AK11" t="n">
+        <v>-0.002220211658354983</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1752,6 +1785,9 @@
       <c r="AJ12" t="n">
         <v>-0.0006704718054084364</v>
       </c>
+      <c r="AK12" t="n">
+        <v>-0.0004854138143054785</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1861,6 +1897,9 @@
       </c>
       <c r="AJ13" t="n">
         <v>-0.000886604404988485</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.0008699728817311164</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.03744976712879597</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.07169643773142624</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>-0.1072818464050471</v>
       </c>
+      <c r="AL3" t="n">
+        <v>-0.117291776848255</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>-0.6728431047729226</v>
       </c>
+      <c r="AL4" t="n">
+        <v>-0.682294454511136</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>0.02703028522208619</v>
       </c>
+      <c r="AL5" t="n">
+        <v>0.0342763816481375</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>-0.0302443693142004</v>
       </c>
+      <c r="AL6" t="n">
+        <v>-0.02703647347317969</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.01299029093605481</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.01025594180526022</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.03170615122758498</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.02526335799125278</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1449,6 +1473,9 @@
       <c r="AK9" t="n">
         <v>0.002766991107823289</v>
       </c>
+      <c r="AL9" t="n">
+        <v>0.002852402971435806</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1562,6 +1589,9 @@
       <c r="AK10" t="n">
         <v>0.005326372089901938</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.005043053626539003</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1675,6 +1705,9 @@
       <c r="AK11" t="n">
         <v>-0.002220211658354983</v>
       </c>
+      <c r="AL11" t="n">
+        <v>-0.002182633059742514</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1788,6 +1821,9 @@
       <c r="AK12" t="n">
         <v>-0.0004854138143054785</v>
       </c>
+      <c r="AL12" t="n">
+        <v>-0.0003663462671710656</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1900,6 +1936,9 @@
       </c>
       <c r="AK13" t="n">
         <v>-0.0008699728817311164</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.0008397713167172475</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.07169643773142624</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.1040762090077701</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>-0.117291776848255</v>
       </c>
+      <c r="AM3" t="n">
+        <v>-0.127230571784573</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>-0.682294454511136</v>
       </c>
+      <c r="AM4" t="n">
+        <v>-0.6906619698866669</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>0.0342763816481375</v>
       </c>
+      <c r="AM5" t="n">
+        <v>0.04203443329281645</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>-0.02703647347317969</v>
       </c>
+      <c r="AM6" t="n">
+        <v>-0.02465697602897575</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.01025594180526022</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.008044673018135665</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.02526335799125278</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.02018878311477417</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1476,6 +1500,9 @@
       <c r="AL9" t="n">
         <v>0.002852402971435806</v>
       </c>
+      <c r="AM9" t="n">
+        <v>0.002933471110461746</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1592,6 +1619,9 @@
       <c r="AL10" t="n">
         <v>0.005043053626539003</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.004777152332743824</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1708,6 +1738,9 @@
       <c r="AL11" t="n">
         <v>-0.002182633059742514</v>
       </c>
+      <c r="AM11" t="n">
+        <v>-0.002126495396649467</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1824,6 +1857,9 @@
       <c r="AL12" t="n">
         <v>-0.0003663462671710656</v>
       </c>
+      <c r="AM12" t="n">
+        <v>-0.0003056644331238939</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1939,6 +1975,9 @@
       </c>
       <c r="AL13" t="n">
         <v>-0.0008397713167172475</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.0007984970028115167</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AN13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.1040762090077701</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.1343122119886139</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>-0.127230571784573</v>
       </c>
+      <c r="AN3" t="n">
+        <v>-0.1369564068185027</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>-0.6906619698866669</v>
       </c>
+      <c r="AN4" t="n">
+        <v>-0.6980938865682711</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>0.04203443329281645</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.05010952573785471</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>-0.02465697602897575</v>
       </c>
+      <c r="AN6" t="n">
+        <v>-0.02302092562522099</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.008044673018135665</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.006314143058897879</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.02018878311477417</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.01635806416944137</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1503,6 +1527,9 @@
       <c r="AM9" t="n">
         <v>0.002933471110461746</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.003009774352741321</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1622,6 +1649,9 @@
       <c r="AM10" t="n">
         <v>0.004777152332743824</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.00453133184662771</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1741,6 +1771,9 @@
       <c r="AM11" t="n">
         <v>-0.002126495396649467</v>
       </c>
+      <c r="AN11" t="n">
+        <v>-0.002056021978883445</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1860,6 +1893,9 @@
       <c r="AM12" t="n">
         <v>-0.0003056644331238939</v>
       </c>
+      <c r="AN12" t="n">
+        <v>-0.0002958457135288339</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1978,6 +2014,9 @@
       </c>
       <c r="AM13" t="n">
         <v>-0.0007984970028115167</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.0007484651708357717</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.1343122119886139</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.1622115928661675</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>-0.1369564068185027</v>
       </c>
+      <c r="AO3" t="n">
+        <v>-0.1463532330119958</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>-0.6980938865682711</v>
       </c>
+      <c r="AO4" t="n">
+        <v>-0.7047279812778264</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>0.05010952573785471</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.05832957777874807</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>-0.02302092562522099</v>
       </c>
+      <c r="AO6" t="n">
+        <v>-0.02204362351191588</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.006314143058897879</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.005020225793654251</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.01635806416944137</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.01364448374433389</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1530,6 +1554,9 @@
       <c r="AN9" t="n">
         <v>0.003009774352741321</v>
       </c>
+      <c r="AO9" t="n">
+        <v>0.003081060232307864</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1652,6 +1679,9 @@
       <c r="AN10" t="n">
         <v>0.00453133184662771</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.004307538565419755</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1774,6 +1804,9 @@
       <c r="AN11" t="n">
         <v>-0.002056021978883445</v>
       </c>
+      <c r="AO11" t="n">
+        <v>-0.001975023611196343</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1896,6 +1929,9 @@
       <c r="AN12" t="n">
         <v>-0.0002958457135288339</v>
       </c>
+      <c r="AO12" t="n">
+        <v>-0.0003295818648387719</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2017,6 +2053,9 @@
       </c>
       <c r="AN13" t="n">
         <v>-0.0007484651708357717</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.0006917942123551716</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.1622115928661675</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.1876554954103831</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>-0.1463532330119958</v>
       </c>
+      <c r="AP3" t="n">
+        <v>-0.1553288048438228</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>-0.7047279812778264</v>
       </c>
+      <c r="AP4" t="n">
+        <v>-0.710690823230382</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>0.05832957777874807</v>
       </c>
+      <c r="AP5" t="n">
+        <v>0.06654515157135892</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>-0.02204362351191588</v>
       </c>
+      <c r="AP6" t="n">
+        <v>-0.02164205332193979</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.005020225793654251</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.004118040730603746</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.01364448374433389</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.0119215640269497</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1557,6 +1581,9 @@
       <c r="AO9" t="n">
         <v>0.003081060232307864</v>
       </c>
+      <c r="AP9" t="n">
+        <v>0.003147218617707755</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1682,6 +1709,9 @@
       <c r="AO10" t="n">
         <v>0.004307538565419755</v>
       </c>
+      <c r="AP10" t="n">
+        <v>0.004107064652990216</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1807,6 +1837,9 @@
       <c r="AO11" t="n">
         <v>-0.001975023611196343</v>
       </c>
+      <c r="AP11" t="n">
+        <v>-0.001886893654049802</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1932,6 +1965,9 @@
       <c r="AO12" t="n">
         <v>-0.0003295818648387719</v>
       </c>
+      <c r="AP12" t="n">
+        <v>-0.0003998850091757773</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2056,6 +2092,9 @@
       </c>
       <c r="AO13" t="n">
         <v>-0.0006917942123551716</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.0006303970650447927</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP13"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.1876554954103831</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2105893244935544</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>-0.1553288048438228</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>-0.1638125909370838</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>-0.710690823230382</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>-0.7160973478204194</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>0.06654515157135892</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>0.07462884145592809</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>-0.02164205332193979</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>-0.0217360666357784</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.004118040730603746</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.00356284523523992</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.0119215640269497</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.01106525406620082</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1584,6 +1608,9 @@
       <c r="AP9" t="n">
         <v>0.003147218617707755</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>0.003208257627902964</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1712,6 +1739,9 @@
       <c r="AP10" t="n">
         <v>0.004107064652990216</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>0.003930615230188426</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1840,6 +1870,9 @@
       <c r="AP11" t="n">
         <v>-0.001886893654049802</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>-0.001794611670313605</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1968,6 +2001,9 @@
       <c r="AP12" t="n">
         <v>-0.0003998850091757773</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>-0.0005001699666897689</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2095,6 +2131,9 @@
       </c>
       <c r="AP13" t="n">
         <v>-0.0006303970650447927</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.000565977879048303</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2105893244935544</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2310134137656068</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>-0.1638125909370838</v>
       </c>
+      <c r="AR3" t="n">
+        <v>-0.1717536231969338</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>-0.7160973478204194</v>
       </c>
+      <c r="AR4" t="n">
+        <v>-0.7210507083048979</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>0.07462884145592809</v>
       </c>
+      <c r="AR5" t="n">
+        <v>0.08247432513215425</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>-0.0217360666357784</v>
       </c>
+      <c r="AR6" t="n">
+        <v>-0.02224933992065603</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.00356284523523992</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.003310792695093454</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.01106525406620082</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.01095573548087236</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,6 +1635,9 @@
       <c r="AQ9" t="n">
         <v>0.003208257627902964</v>
       </c>
+      <c r="AR9" t="n">
+        <v>0.003264281798040655</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1742,6 +1769,9 @@
       <c r="AQ10" t="n">
         <v>0.003930615230188426</v>
       </c>
+      <c r="AR10" t="n">
+        <v>0.003778377539840526</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1873,6 +1903,9 @@
       <c r="AQ11" t="n">
         <v>-0.001794611670313605</v>
       </c>
+      <c r="AR11" t="n">
+        <v>-0.001700754166546241</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2004,6 +2037,9 @@
       <c r="AQ12" t="n">
         <v>-0.0005001699666897689</v>
       </c>
+      <c r="AR12" t="n">
+        <v>-0.0006243153965803539</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2134,6 +2170,9 @@
       </c>
       <c r="AQ13" t="n">
         <v>-0.000565977879048303</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.0005000331461438711</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AS13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2310134137656068</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.248974194821598</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>-0.1717536231969338</v>
       </c>
+      <c r="AS3" t="n">
+        <v>-0.1791183322336037</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>-0.7210507083048979</v>
       </c>
+      <c r="AS4" t="n">
+        <v>-0.7256423637599181</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>0.08247432513215425</v>
       </c>
+      <c r="AS5" t="n">
+        <v>0.08999515237580916</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>-0.02224933992065603</v>
       </c>
+      <c r="AS6" t="n">
+        <v>-0.02311011996687542</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.003310792695093454</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.003319562308539103</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.01095573548087236</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.0114788746433347</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,6 +1662,9 @@
       <c r="AR9" t="n">
         <v>0.003264281798040655</v>
       </c>
+      <c r="AS9" t="n">
+        <v>0.003315472438291485</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1772,6 +1799,9 @@
       <c r="AR10" t="n">
         <v>0.003778377539840526</v>
       </c>
+      <c r="AS10" t="n">
+        <v>0.003650090256362815</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1906,6 +1936,9 @@
       <c r="AR11" t="n">
         <v>-0.001700754166546241</v>
       </c>
+      <c r="AS11" t="n">
+        <v>-0.001607511071907521</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2040,6 +2073,9 @@
       <c r="AR12" t="n">
         <v>-0.0006243153965803539</v>
       </c>
+      <c r="AS12" t="n">
+        <v>-0.0007667061608956399</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2173,6 +2209,9 @@
       </c>
       <c r="AR13" t="n">
         <v>-0.0005000331461438711</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.0004338565370801598</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS13"/>
+  <dimension ref="A1:AT13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.248974194821598</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.264555942142978</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>-0.1791183322336037</v>
       </c>
+      <c r="AT3" t="n">
+        <v>-0.1858884096707781</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>-0.7256423637599181</v>
       </c>
+      <c r="AT4" t="n">
+        <v>-0.7299523642644601</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>0.08999515237580916</v>
       </c>
+      <c r="AT5" t="n">
+        <v>0.09712333837769459</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>-0.02311011996687542</v>
       </c>
+      <c r="AT6" t="n">
+        <v>-0.02425177610307181</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.003319562308539103</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.003548867699745832</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.0114788746433347</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.01252735077884922</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1665,6 +1689,9 @@
       <c r="AS9" t="n">
         <v>0.003315472438291485</v>
       </c>
+      <c r="AT9" t="n">
+        <v>0.003362070113200145</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1802,6 +1829,9 @@
       <c r="AS10" t="n">
         <v>0.003650090256362815</v>
       </c>
+      <c r="AT10" t="n">
+        <v>0.003545111443278316</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1939,6 +1969,9 @@
       <c r="AS11" t="n">
         <v>-0.001607511071907521</v>
       </c>
+      <c r="AT11" t="n">
+        <v>-0.00151670672738332</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2076,6 +2109,9 @@
       <c r="AS12" t="n">
         <v>-0.0007667061608956399</v>
       </c>
+      <c r="AT12" t="n">
+        <v>-0.0009222592330285965</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2212,6 +2248,9 @@
       </c>
       <c r="AS13" t="n">
         <v>-0.0004338565370801598</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.0003685467553800152</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_12.xlsx
+++ b/predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT13"/>
+  <dimension ref="A1:AU13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.264555942142978</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2778731474492918</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>-0.1858884096707781</v>
       </c>
+      <c r="AU3" t="n">
+        <v>-0.1920587311636295</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>-0.7299523642644601</v>
       </c>
+      <c r="AU4" t="n">
+        <v>-0.7340497970674879</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>0.09712333837769459</v>
       </c>
+      <c r="AU5" t="n">
+        <v>0.1038078210447319</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>-0.02425177610307181</v>
       </c>
+      <c r="AU6" t="n">
+        <v>-0.02561317821880999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.003548867699745832</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.003960852833487296</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.01252735077884922</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.01400149016381392</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1692,6 +1716,9 @@
       <c r="AT9" t="n">
         <v>0.003362070113200145</v>
       </c>
+      <c r="AU9" t="n">
+        <v>0.003404359155838853</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1832,6 +1859,9 @@
       <c r="AT10" t="n">
         <v>0.003545111443278316</v>
       </c>
+      <c r="AU10" t="n">
+        <v>0.003462483956094391</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1972,6 +2002,9 @@
       <c r="AT11" t="n">
         <v>-0.00151670672738332</v>
       </c>
+      <c r="AU11" t="n">
+        <v>-0.00142982428247316</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2112,6 +2145,9 @@
       <c r="AT12" t="n">
         <v>-0.0009222592330285965</v>
       </c>
+      <c r="AU12" t="n">
+        <v>-0.001086435365559093</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2251,6 +2287,9 @@
       </c>
       <c r="AT13" t="n">
         <v>-0.0003685467553800152</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.0003050177778376156</v>
       </c>
     </row>
   </sheetData>
